--- a/myapp/files/80_distances/distances_aggregate1_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue_Risks.xlsx
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.597608823529412</v>
+        <v>0.586529411764706</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.570167647058824</v>
+        <v>0.746766176470588</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.574235294117647</v>
+        <v>0.562204411764706</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5678</v>
+        <v>0.753298529411765</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.601748529411765</v>
+        <v>0.594747058823529</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.615311764705882</v>
+        <v>0.757986764705882</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.662964705882353</v>
+        <v>0.655964705882353</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.678705882352941</v>
+        <v>0.736388235294118</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.608305882352941</v>
+        <v>0.601302941176471</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0.605995588235294</v>
+        <v>0.742357352941176</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.581875</v>
+        <v>0.570420588235294</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.570439705882353</v>
+        <v>0.749011764705882</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0391323529411765</v>
+        <v>0.0391014705882353</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0160117647058824</v>
+        <v>0.0159838235294118</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0821397058823529</v>
+        <v>0.0821602941176471</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0684779411764706</v>
+        <v>0.0684485294117647</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.214204411764706</v>
+        <v>0.214245588235294</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.209836764705882</v>
+        <v>0.209822058823529</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298672058823529</v>
+        <v>0.298670588235294</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324944117647059</v>
+        <v>0.324905882352941</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191705882352941</v>
+        <v>0.191713235294118</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181219117647059</v>
+        <v>0.181175</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate1_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue_Risks.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.570420588235294</v>
+        <v>0.570401470588235</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.749011764705882</v>
+        <v>0.748983823529412</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0391014705882353</v>
+        <v>0.0391323529411765</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0159838235294118</v>
+        <v>0.0160132352941176</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0821602941176471</v>
+        <v>0.082125</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0684485294117647</v>
+        <v>0.0684911764705882</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.214245588235294</v>
+        <v>0.214236764705882</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.209822058823529</v>
+        <v>0.209836764705882</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298670588235294</v>
+        <v>0.298638235294118</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324905882352941</v>
+        <v>0.324901470588235</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191713235294118</v>
+        <v>0.191698529411765</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181175</v>
+        <v>0.181241176470588</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate1_pValue_Risks.xlsx
+++ b/myapp/files/80_distances/distances_aggregate1_pValue_Risks.xlsx
@@ -407,7 +407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.297222058823529</v>
+        <v>0.31275</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.322166176470588</v>
+        <v>0.38395</v>
       </c>
     </row>
     <row r="4">
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114105882352941</v>
+        <v>0.10035</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0777411764705882</v>
+        <v>0.07475</v>
       </c>
     </row>
     <row r="6">
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.314873529411765</v>
+        <v>0.3393</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.335111764705882</v>
+        <v>0.37265</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.231133823529412</v>
+        <v>0.19135</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.210577941176471</v>
+        <v>0.22245</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.239920588235294</v>
+        <v>0.22865</v>
       </c>
     </row>
     <row r="11">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222907352941176</v>
+        <v>0.2111</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>0.135376470588235</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="13">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0.175932352941176</v>
+        <v>0.19005</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.586529411764706</v>
+        <v>0.5426</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>0.746766176470588</v>
+        <v>0.70575</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>0.562204411764706</v>
+        <v>0.53675</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.753298529411765</v>
+        <v>0.6891</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594747058823529</v>
+        <v>0.5392</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>0.757986764705882</v>
+        <v>0.70395</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0.655964705882353</v>
+        <v>0.6984</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>0.736388235294118</v>
+        <v>0.5139</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>0.601302941176471</v>
+        <v>0.5473</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>0.742357352941176</v>
+        <v>0.70255</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.570401470588235</v>
+        <v>0.5377</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>0.748983823529412</v>
+        <v>0.70815</v>
       </c>
     </row>
     <row r="26">
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.182973529411765</v>
+        <v>0.16165</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.181919117647059</v>
+        <v>0.19575</v>
       </c>
     </row>
     <row r="28">
@@ -771,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2283</v>
+        <v>0.22805</v>
       </c>
     </row>
     <row r="29">
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.195597058823529</v>
+        <v>0.18555</v>
       </c>
     </row>
     <row r="30">
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0867</v>
+        <v>0.0733</v>
       </c>
     </row>
     <row r="31">
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0522705882352941</v>
+        <v>0.04825</v>
       </c>
     </row>
     <row r="32">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.150247058823529</v>
+        <v>0.16485</v>
       </c>
     </row>
     <row r="33">
@@ -841,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.172147058823529</v>
+        <v>0.21785</v>
       </c>
     </row>
     <row r="34">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0391323529411765</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0160132352941176</v>
+        <v>0.00855</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>0.082125</v>
+        <v>0.07885</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0684911764705882</v>
+        <v>0.06895</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>0.214236764705882</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>0.209836764705882</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>0.298638235294118</v>
+        <v>0.32705</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>0.324901470588235</v>
+        <v>0.38645</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>0.191698529411765</v>
+        <v>0.18185</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181241176470588</v>
+        <v>0.19035</v>
       </c>
     </row>
   </sheetData>
